--- a/pred_ohlcv/54_21/2020-01-25 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-113248.04711655</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-113246.1471165501</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-112932.99411655</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-113648.9890165501</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-114678.5878165501</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-134582.96921655</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-134582.96921655</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-134870.24531655</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-138523.74531655</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-137807.93141655</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-137807.93141655</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-137807.93141655</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-137919.93141655</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-137919.93141655</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-137919.93141655</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-137919.93141655</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-138681.51361655</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-139449.50021655</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-137449.50021655</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-142449.50021655</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-145167.25751655</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-145167.25751655</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-145463.25751655</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-153054.61671655</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-157002.27781655</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-158482.27781655</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-168159.48321655</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-178081.68141655</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-174559.1812165501</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-177118.8489165501</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-177140.9809165501</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-176265.3486165501</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-176265.3486165501</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-176246.9662636101</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-176661.92926361</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-176829.92926361</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-176829.92926361</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-176829.92926361</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-176829.92926361</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-176829.92926361</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-171827.90816361</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-176829.92926361</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-262968.8368636101</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-270787.4717636101</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-269631.2505636101</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-269631.2505636101</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-269631.2505636101</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-281836.8417636101</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-278327.1285636101</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-278327.1284636101</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-264977.2621636101</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-232949.3712636101</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-232949.3712636101</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-232949.3712636101</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-232949.3712636101</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-232949.3712636101</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-229676.2940636101</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-229776.2940636101</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-228146.5489636101</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-228146.5489636101</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-227315.1302636101</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-226724.8828636101</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-226734.8828636101</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-226734.8828636101</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-237610.0895636101</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-237688.0880643601</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-248392.5305643601</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-267662.1043140902</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-264517.3881918803</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-252885.2731918803</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-253723.2385918802</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-253723.2385918802</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-256010.0975423702</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-252657.7068135702</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-252657.7068135702</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-247863.1475511902</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-247886.1490426102</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-250823.6555104202</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-250823.6555104202</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-248815.1706104202</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-248825.2264104202</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-245568.9002104202</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-245568.9002104202</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-245568.9002104202</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-245568.9002104202</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-245816.1201104202</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-245816.1201104202</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-245716.1201104202</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-245216.1201104202</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-248752.6208104202</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-245291.8528104202</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-241181.8528104202</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 MTL ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-113248.04711655</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-113246.1471165501</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-132999.3245165501</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-141613.37421655</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-135933.37421655</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-134582.96921655</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-134582.96921655</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-134870.24531655</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-138523.74531655</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-137807.93141655</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-137807.93141655</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-137919.93141655</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-137919.93141655</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-137919.93141655</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-137919.93141655</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-138681.51361655</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-139449.50021655</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-137449.50021655</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-142449.50021655</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-145167.25751655</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-145167.25751655</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-145463.25751655</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-153054.61671655</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-157002.27781655</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-158482.27781655</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-158482.27781655</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-168159.48321655</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-178081.68141655</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-174537.04921655</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-174559.1812165501</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-177118.8489165501</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-177140.9809165501</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-176265.3486165501</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-176265.3486165501</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-176246.9662636101</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-176661.92926361</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-176829.92926361</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-176829.92926361</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-176829.92926361</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-176829.92926361</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-176829.92926361</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-171827.90816361</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-176829.92926361</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-262968.8368636101</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-270787.4717636101</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-269631.2505636101</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-269631.2505636101</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-269631.2505636101</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-281836.8417636101</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-278327.1285636101</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-278327.1284636101</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-264977.2621636101</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-232949.3712636101</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-232949.3712636101</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-232949.3712636101</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-232949.3712636101</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-232949.3712636101</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-229676.2940636101</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-229776.2940636101</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-228146.5489636101</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-228146.5489636101</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-227315.1302636101</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-226724.8828636101</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-226734.8828636101</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-226734.8828636101</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-237610.0895636101</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-237688.0880643601</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-248392.5305643601</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-264517.3881918803</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-252885.2731918803</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-253723.2385918802</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-253723.2385918802</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-256010.0975423702</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-252657.7068135702</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-252657.7068135702</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-247863.1475511902</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-247886.1490426102</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-250823.6555104202</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-250823.6555104202</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-248815.1706104202</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-248825.2264104202</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-245568.9002104202</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-245568.9002104202</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-245568.9002104202</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-245568.9002104202</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-245816.1201104202</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-245816.1201104202</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-245716.1201104202</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-245216.1201104202</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-248752.6208104202</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-245291.8528104202</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-241181.8528104202</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
